--- a/Code/Results/Cases/Case_2_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.689238683652974</v>
+        <v>0.5366756858871611</v>
       </c>
       <c r="C2">
-        <v>0.3512824105328605</v>
+        <v>0.1457201269627433</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.400913008582215</v>
+        <v>0.613646833126019</v>
       </c>
       <c r="F2">
-        <v>1.299480657310966</v>
+        <v>1.821140056834466</v>
       </c>
       <c r="G2">
-        <v>0.226733071090429</v>
+        <v>0.2596747568516378</v>
       </c>
       <c r="H2">
-        <v>0.1872415554945448</v>
+        <v>0.4282963081503013</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01351066728085648</v>
+        <v>0.02296014546912239</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8697581721638343</v>
+        <v>0.4989552367505041</v>
       </c>
       <c r="N2">
-        <v>0.696825540349721</v>
+        <v>1.00672664905661</v>
       </c>
       <c r="O2">
-        <v>0.8236915879212461</v>
+        <v>1.295565746960193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.47411390183342</v>
+        <v>0.4690044873290731</v>
       </c>
       <c r="C3">
-        <v>0.3154083835118939</v>
+        <v>0.1338437435756532</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3677767610748504</v>
+        <v>0.6089153485827552</v>
       </c>
       <c r="F3">
-        <v>1.192731520030975</v>
+        <v>1.808094619239839</v>
       </c>
       <c r="G3">
-        <v>0.208048654360141</v>
+        <v>0.2580350798519291</v>
       </c>
       <c r="H3">
-        <v>0.1838430036527541</v>
+        <v>0.4310242898740029</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01367083574069561</v>
+        <v>0.02307780131247839</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7585591690520062</v>
+        <v>0.4684625176467634</v>
       </c>
       <c r="N3">
-        <v>0.7029512403707798</v>
+        <v>1.011324605028932</v>
       </c>
       <c r="O3">
-        <v>0.776630071780076</v>
+        <v>1.297555297880223</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.341942850720528</v>
+        <v>0.4273327161748739</v>
       </c>
       <c r="C4">
-        <v>0.2933339746697641</v>
+        <v>0.126510425852004</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3479430943372464</v>
+        <v>0.6062896402596039</v>
       </c>
       <c r="F4">
-        <v>1.129375761252845</v>
+        <v>1.801158539905998</v>
       </c>
       <c r="G4">
-        <v>0.1972192213241328</v>
+        <v>0.2572759575861809</v>
       </c>
       <c r="H4">
-        <v>0.1821736956408344</v>
+        <v>0.4329313498128684</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01378219367436184</v>
+        <v>0.02315750984052656</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6906249003727396</v>
+        <v>0.4498863300257412</v>
       </c>
       <c r="N4">
-        <v>0.7075787535814584</v>
+        <v>1.014552577230695</v>
       </c>
       <c r="O4">
-        <v>0.7499622604143212</v>
+        <v>1.299779117795921</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.288048346927837</v>
+        <v>0.41032172068509</v>
       </c>
       <c r="C5">
-        <v>0.2843251572482473</v>
+        <v>0.1235119140817318</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3399808132549538</v>
+        <v>0.6052899652907726</v>
       </c>
       <c r="F5">
-        <v>1.10407186595063</v>
+        <v>1.798602004845876</v>
       </c>
       <c r="G5">
-        <v>0.1929569664784623</v>
+        <v>0.2570287149077686</v>
       </c>
       <c r="H5">
-        <v>0.181593603222133</v>
+        <v>0.4337668449456729</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01383078933380677</v>
+        <v>0.02319187375777343</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6630150520333871</v>
+        <v>0.4423536309213958</v>
       </c>
       <c r="N5">
-        <v>0.7096753951249397</v>
+        <v>1.015969954476482</v>
       </c>
       <c r="O5">
-        <v>0.7396221780608414</v>
+        <v>1.300936995596842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.279096812561875</v>
+        <v>0.4074953142979325</v>
       </c>
       <c r="C6">
-        <v>0.2828284085893955</v>
+        <v>0.1230134086476795</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3386656914536914</v>
+        <v>0.605128218952018</v>
       </c>
       <c r="F6">
-        <v>1.099900198056162</v>
+        <v>1.798193798178715</v>
       </c>
       <c r="G6">
-        <v>0.1922580248060939</v>
+        <v>0.2569914065924195</v>
       </c>
       <c r="H6">
-        <v>0.1815031929407951</v>
+        <v>0.4339091025634971</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01383905127192353</v>
+        <v>0.02319769365762347</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6584345796380759</v>
+        <v>0.4411050940033761</v>
       </c>
       <c r="N6">
-        <v>0.7100360818742715</v>
+        <v>1.016211471343979</v>
       </c>
       <c r="O6">
-        <v>0.7379361246290586</v>
+        <v>1.301144448850621</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.341216163376032</v>
+        <v>0.4271034175466184</v>
       </c>
       <c r="C7">
-        <v>0.2932125342210554</v>
+        <v>0.1264700275687005</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3478352370799627</v>
+        <v>0.6062758734884568</v>
       </c>
       <c r="F7">
-        <v>1.129032469117618</v>
+        <v>1.801122968549137</v>
       </c>
       <c r="G7">
-        <v>0.1971611423170785</v>
+        <v>0.2572723719427614</v>
       </c>
       <c r="H7">
-        <v>0.182165472927764</v>
+        <v>0.432942381328516</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01378283610160391</v>
+        <v>0.02315796565833583</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6902522605970276</v>
+        <v>0.4497845900402808</v>
       </c>
       <c r="N7">
-        <v>0.7076061846454422</v>
+        <v>1.014571279460299</v>
       </c>
       <c r="O7">
-        <v>0.7498207180784675</v>
+        <v>1.299793714893269</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.615073035609498</v>
+        <v>0.5133684956384457</v>
       </c>
       <c r="C8">
-        <v>0.3389220726790256</v>
+        <v>0.1416338276000886</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3893759579227165</v>
+        <v>0.6119574486484112</v>
       </c>
       <c r="F8">
-        <v>1.262196866482128</v>
+        <v>1.8164190621643</v>
       </c>
       <c r="G8">
-        <v>0.2201505753427213</v>
+        <v>0.2590578957220018</v>
       </c>
       <c r="H8">
-        <v>0.1859801399519796</v>
+        <v>0.4291887484785946</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01356315792784279</v>
+        <v>0.02299916593230122</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8313381193605451</v>
+        <v>0.4884111891386667</v>
       </c>
       <c r="N8">
-        <v>0.6987535860989382</v>
+        <v>1.008228100048271</v>
       </c>
       <c r="O8">
-        <v>0.8069819558764095</v>
+        <v>1.29604350866471</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.152082752025592</v>
+        <v>0.6815300338288921</v>
       </c>
       <c r="C9">
-        <v>0.428251431202284</v>
+        <v>0.1710346890110941</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4753206123791429</v>
+        <v>0.6253151451924026</v>
       </c>
       <c r="F9">
-        <v>1.542440923965088</v>
+        <v>1.854942296967963</v>
       </c>
       <c r="G9">
-        <v>0.2708496162727769</v>
+        <v>0.2645324182651194</v>
       </c>
       <c r="H9">
-        <v>0.1970011500482656</v>
+        <v>0.4236695991612009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01323826502930814</v>
+        <v>0.0227468239512767</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.11132181684728</v>
+        <v>0.5653056504769296</v>
       </c>
       <c r="N9">
-        <v>0.6885988549990287</v>
+        <v>0.9989947070341287</v>
       </c>
       <c r="O9">
-        <v>0.938327079720807</v>
+        <v>1.296659896865407</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.547601103934937</v>
+        <v>0.8044229604793145</v>
       </c>
       <c r="C10">
-        <v>0.4938086573644114</v>
+        <v>0.1924214734178236</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5418264950624874</v>
+        <v>0.6364804907568882</v>
       </c>
       <c r="F10">
-        <v>1.762579072881664</v>
+        <v>1.888459718711189</v>
       </c>
       <c r="G10">
-        <v>0.3122827251948763</v>
+        <v>0.2697696096455076</v>
       </c>
       <c r="H10">
-        <v>0.2075931279827756</v>
+        <v>0.4207382725738569</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01306795295881535</v>
+        <v>0.02259718924253207</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.31995456368891</v>
+        <v>0.622486502212837</v>
       </c>
       <c r="N10">
-        <v>0.686018735423076</v>
+        <v>0.9941574104763902</v>
       </c>
       <c r="O10">
-        <v>1.048880426052961</v>
+        <v>1.301999782396308</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.72798514125077</v>
+        <v>0.8601793739451864</v>
       </c>
       <c r="C11">
-        <v>0.523644842248018</v>
+        <v>0.2021024881209144</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5729633441717965</v>
+        <v>0.6418535734021162</v>
       </c>
       <c r="F11">
-        <v>1.866438652024456</v>
+        <v>1.904843686326416</v>
       </c>
       <c r="G11">
-        <v>0.332220607461025</v>
+        <v>0.2724186438925642</v>
       </c>
       <c r="H11">
-        <v>0.2130332485387498</v>
+        <v>0.4196489222855888</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01300621668977442</v>
+        <v>0.02253683019725727</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.415722137326696</v>
+        <v>0.6486461740458509</v>
       </c>
       <c r="N11">
-        <v>0.6860204679564106</v>
+        <v>0.9923779608909911</v>
       </c>
       <c r="O11">
-        <v>1.102775233824076</v>
+        <v>1.30549636457863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.796379004017524</v>
+        <v>0.8812705911192324</v>
       </c>
       <c r="C12">
-        <v>0.5349474856267591</v>
+        <v>0.2057613379665497</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5848946357143063</v>
+        <v>0.6439304640231427</v>
       </c>
       <c r="F12">
-        <v>1.906357697171202</v>
+        <v>1.911211509693047</v>
       </c>
       <c r="G12">
-        <v>0.3399433506048553</v>
+        <v>0.2734602964747381</v>
       </c>
       <c r="H12">
-        <v>0.2151898296633021</v>
+        <v>0.4192715318820177</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01298518114928271</v>
+        <v>0.02251507834587407</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.452129830488275</v>
+        <v>0.658573075222165</v>
       </c>
       <c r="N12">
-        <v>0.6862005023366038</v>
+        <v>0.9917645529603618</v>
       </c>
       <c r="O12">
-        <v>1.123751036137861</v>
+        <v>1.306974371503401</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.781644984785885</v>
+        <v>0.8767292413427867</v>
       </c>
       <c r="C13">
-        <v>0.5325130271352521</v>
+        <v>0.2049736606713282</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5823185463952001</v>
+        <v>0.6434812913684667</v>
       </c>
       <c r="F13">
-        <v>1.897733269009265</v>
+        <v>1.909832808402555</v>
       </c>
       <c r="G13">
-        <v>0.3382721722622222</v>
+        <v>0.2732342418356808</v>
       </c>
       <c r="H13">
-        <v>0.2147209597398927</v>
+        <v>0.4193512472702849</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01298960602812294</v>
+        <v>0.02251971392252905</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.444282121752991</v>
+        <v>0.6564342215345533</v>
       </c>
       <c r="N13">
-        <v>0.6861535787181055</v>
+        <v>0.9918939754651461</v>
       </c>
       <c r="O13">
-        <v>1.119207490241422</v>
+        <v>1.306649203493606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.733610094294875</v>
+        <v>0.8619150194993495</v>
       </c>
       <c r="C14">
-        <v>0.5245746166318099</v>
+        <v>0.2024036484106944</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5739420430536555</v>
+        <v>0.6420235945212553</v>
       </c>
       <c r="F14">
-        <v>1.869710667622314</v>
+        <v>1.905364292161167</v>
       </c>
       <c r="G14">
-        <v>0.3328524054635977</v>
+        <v>0.2725035682214809</v>
       </c>
       <c r="H14">
-        <v>0.2132086947345613</v>
+        <v>0.4196171701314029</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01300443866269418</v>
+        <v>0.02253501853970441</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.418714448177411</v>
+        <v>0.6494624518957721</v>
       </c>
       <c r="N14">
-        <v>0.6860316227743226</v>
+        <v>0.9923262849788728</v>
       </c>
       <c r="O14">
-        <v>1.104489270293925</v>
+        <v>1.305614873713807</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.704199204710449</v>
+        <v>0.8528379111937738</v>
       </c>
       <c r="C15">
-        <v>0.5197127475979642</v>
+        <v>0.200828504512117</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5688299006667705</v>
+        <v>0.6411362102351319</v>
       </c>
       <c r="F15">
-        <v>1.852624513720826</v>
+        <v>1.902648501906427</v>
       </c>
       <c r="G15">
-        <v>0.3295556259678847</v>
+        <v>0.2720610314799075</v>
       </c>
       <c r="H15">
-        <v>0.2122951788059737</v>
+        <v>0.4197846301371584</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01301383159230873</v>
+        <v>0.02254453682154001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.403072669153147</v>
+        <v>0.6451947371300548</v>
       </c>
       <c r="N15">
-        <v>0.6859806003707405</v>
+        <v>0.992598953540778</v>
       </c>
       <c r="O15">
-        <v>1.095549283446729</v>
+        <v>1.305001375438565</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.535823535481768</v>
+        <v>0.8007760616400219</v>
       </c>
       <c r="C16">
-        <v>0.4918592660893921</v>
+        <v>0.1917878105572868</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5398105241831246</v>
+        <v>0.6361352577080339</v>
       </c>
       <c r="F16">
-        <v>1.755871029617666</v>
+        <v>1.887411871191389</v>
       </c>
       <c r="G16">
-        <v>0.3110030087841977</v>
+        <v>0.2696018695391444</v>
       </c>
       <c r="H16">
-        <v>0.2072507121603167</v>
+        <v>0.4208143781369529</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01307231096780725</v>
+        <v>0.02260128866489808</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.313714812624326</v>
+        <v>0.6207798417061667</v>
       </c>
       <c r="N16">
-        <v>0.6860431446798856</v>
+        <v>0.9942821644089008</v>
       </c>
       <c r="O16">
-        <v>1.045434883797071</v>
+        <v>1.301792789031822</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.432662323802901</v>
+        <v>0.7687989806938731</v>
       </c>
       <c r="C17">
-        <v>0.4747772018179717</v>
+        <v>0.1862291832091785</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5222434865211127</v>
+        <v>0.6331425821052221</v>
       </c>
       <c r="F17">
-        <v>1.697506000007564</v>
+        <v>1.878355913295891</v>
       </c>
       <c r="G17">
-        <v>0.2999117312816679</v>
+        <v>0.2681616688411594</v>
       </c>
       <c r="H17">
-        <v>0.2043202575232783</v>
+        <v>0.4215086342704666</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01311227248629621</v>
+        <v>0.0226380761152889</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.259129848676849</v>
+        <v>0.6058396298163871</v>
       </c>
       <c r="N17">
-        <v>0.6863897276721502</v>
+        <v>0.9954225188898533</v>
       </c>
       <c r="O17">
-        <v>1.015647974384649</v>
+        <v>1.300098129675433</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.373368797157411</v>
+        <v>0.7503927331953264</v>
       </c>
       <c r="C18">
-        <v>0.464953203667136</v>
+        <v>0.1830275100442407</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5122216352949494</v>
+        <v>0.6314489410994</v>
       </c>
       <c r="F18">
-        <v>1.664282367899645</v>
+        <v>1.873254153137481</v>
       </c>
       <c r="G18">
-        <v>0.2936338742703128</v>
+        <v>0.2673583872114165</v>
       </c>
       <c r="H18">
-        <v>0.2026928081259314</v>
+        <v>0.4219309291453897</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01313673376906976</v>
+        <v>0.02265996127120573</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.227813696885093</v>
+        <v>0.5972603553480553</v>
       </c>
       <c r="N18">
-        <v>0.6866990524376746</v>
+        <v>0.9961180595812209</v>
       </c>
       <c r="O18">
-        <v>0.9988513991399657</v>
+        <v>1.299223853523927</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.353299667660337</v>
+        <v>0.7441583478884581</v>
       </c>
       <c r="C19">
-        <v>0.4616270972784662</v>
+        <v>0.181942713559323</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5088421408229138</v>
+        <v>0.6308802564867406</v>
       </c>
       <c r="F19">
-        <v>1.65309129699861</v>
+        <v>1.871545156592333</v>
       </c>
       <c r="G19">
-        <v>0.2915252717661048</v>
+        <v>0.2670907124206678</v>
       </c>
       <c r="H19">
-        <v>0.202151546495358</v>
+        <v>0.4220778567253944</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01314526718050146</v>
+        <v>0.02266749601862372</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.217223715698381</v>
+        <v>0.5943579685311562</v>
       </c>
       <c r="N19">
-        <v>0.6868223690217548</v>
+        <v>0.9963603693766743</v>
       </c>
       <c r="O19">
-        <v>0.9932206534631121</v>
+        <v>1.298945077369723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.443639515946245</v>
+        <v>0.7722044405117003</v>
       </c>
       <c r="C20">
-        <v>0.4765954811487347</v>
+        <v>0.1868213758666855</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5241049214917766</v>
+        <v>0.6334582944307243</v>
       </c>
       <c r="F20">
-        <v>1.703682821006453</v>
+        <v>1.879308861881697</v>
       </c>
       <c r="G20">
-        <v>0.3010817940207176</v>
+        <v>0.2683123832658367</v>
       </c>
       <c r="H20">
-        <v>0.2046261493475043</v>
+        <v>0.421432351343995</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01310786514458329</v>
+        <v>0.02263408492006391</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.26493213227738</v>
+        <v>0.6074286014058714</v>
       </c>
       <c r="N20">
-        <v>0.6863413780246219</v>
+        <v>0.9952970245860513</v>
       </c>
       <c r="O20">
-        <v>1.018783716994733</v>
+        <v>1.300268130032151</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.747716594642952</v>
+        <v>0.8662669366005389</v>
       </c>
       <c r="C21">
-        <v>0.5269061830759654</v>
+        <v>0.203158719056006</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5763985008856451</v>
+        <v>0.6424506099015375</v>
       </c>
       <c r="F21">
-        <v>1.877925121700542</v>
+        <v>1.906672363566983</v>
       </c>
       <c r="G21">
-        <v>0.3344395023531064</v>
+        <v>0.2727171378807185</v>
       </c>
       <c r="H21">
-        <v>0.2136502047894737</v>
+        <v>0.4195381087718317</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01300001772506576</v>
+        <v>0.02253049325013023</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.42622026482988</v>
+        <v>0.6515096687195978</v>
       </c>
       <c r="N21">
-        <v>0.6860624900475756</v>
+        <v>0.9921976660263994</v>
       </c>
       <c r="O21">
-        <v>1.108796573903021</v>
+        <v>1.305914500488655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.946962310186848</v>
+        <v>0.9276103508232154</v>
       </c>
       <c r="C22">
-        <v>0.5598136060365846</v>
+        <v>0.2137943842357117</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6114010249583188</v>
+        <v>0.6485736834414482</v>
       </c>
       <c r="F22">
-        <v>1.995268229888495</v>
+        <v>1.925509458065221</v>
       </c>
       <c r="G22">
-        <v>0.3572555552602381</v>
+        <v>0.2758205122283783</v>
       </c>
       <c r="H22">
-        <v>0.2201142361946324</v>
+        <v>0.4185048432944569</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01294322804160153</v>
+        <v>0.02246922795410811</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.532472447756732</v>
+        <v>0.6804402289569538</v>
       </c>
       <c r="N22">
-        <v>0.6869310736011158</v>
+        <v>0.9905242429578749</v>
       </c>
       <c r="O22">
-        <v>1.170955279218077</v>
+        <v>1.310502132836461</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.840567051296034</v>
+        <v>0.8948826830007874</v>
       </c>
       <c r="C23">
-        <v>0.5422470432803834</v>
+        <v>0.2081218293660925</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5926392371410572</v>
+        <v>0.6452831821061409</v>
       </c>
       <c r="F23">
-        <v>1.932303595219366</v>
+        <v>1.915368467787602</v>
       </c>
       <c r="G23">
-        <v>0.344979760321408</v>
+        <v>0.2741435708499012</v>
       </c>
       <c r="H23">
-        <v>0.2166099636010443</v>
+        <v>0.4190375776201591</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01297225728354867</v>
+        <v>0.02250133863481629</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.475680020770554</v>
+        <v>0.6649885199347807</v>
       </c>
       <c r="N23">
-        <v>0.6863677417691889</v>
+        <v>0.9913851927631896</v>
       </c>
       <c r="O23">
-        <v>1.137458275438348</v>
+        <v>1.307971373241713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.438676681444974</v>
+        <v>0.7706649011794298</v>
       </c>
       <c r="C24">
-        <v>0.4757734474902406</v>
+        <v>0.1865536640641494</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5232631258138767</v>
+        <v>0.6333154771302176</v>
       </c>
       <c r="F24">
-        <v>1.700889252731884</v>
+        <v>1.878877707915592</v>
       </c>
       <c r="G24">
-        <v>0.3005525025296549</v>
+        <v>0.2682441683218002</v>
       </c>
       <c r="H24">
-        <v>0.2044876776843552</v>
+        <v>0.4214667667208687</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01310985307835111</v>
+        <v>0.02263588704779806</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.262308717351658</v>
+        <v>0.6067101960041441</v>
       </c>
       <c r="N24">
-        <v>0.6863628948330529</v>
+        <v>0.99535363615351</v>
       </c>
       <c r="O24">
-        <v>1.017365028782592</v>
+        <v>1.30019096139003</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.00671180980919</v>
+        <v>0.6361498533019301</v>
       </c>
       <c r="C25">
-        <v>0.4041071524504503</v>
+        <v>0.1631178710582333</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4515280636980634</v>
+        <v>0.6214642384611651</v>
       </c>
       <c r="F25">
-        <v>1.464324451087535</v>
+        <v>1.843606171466178</v>
       </c>
       <c r="G25">
-        <v>0.2564571981571149</v>
+        <v>0.2628389145119598</v>
       </c>
       <c r="H25">
-        <v>0.1936071726096458</v>
+        <v>0.4249654211711373</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01331443697365131</v>
+        <v>0.0228087914490871</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.035134095349974</v>
+        <v>0.5443821503341155</v>
       </c>
       <c r="N25">
-        <v>0.6905260920751246</v>
+        <v>1.001150222621824</v>
       </c>
       <c r="O25">
-        <v>0.9005030813813448</v>
+        <v>1.29563694713886</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5366756858871611</v>
+        <v>1.689238683652974</v>
       </c>
       <c r="C2">
-        <v>0.1457201269627433</v>
+        <v>0.3512824105325763</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.613646833126019</v>
+        <v>0.4009130085821866</v>
       </c>
       <c r="F2">
-        <v>1.821140056834466</v>
+        <v>1.299480657310951</v>
       </c>
       <c r="G2">
-        <v>0.2596747568516378</v>
+        <v>0.2267330710903579</v>
       </c>
       <c r="H2">
-        <v>0.4282963081503013</v>
+        <v>0.1872415554945448</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02296014546912239</v>
+        <v>0.01351066728080497</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4989552367505041</v>
+        <v>0.8697581721638485</v>
       </c>
       <c r="N2">
-        <v>1.00672664905661</v>
+        <v>0.696825540349657</v>
       </c>
       <c r="O2">
-        <v>1.295565746960193</v>
+        <v>0.8236915879212603</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4690044873290731</v>
+        <v>1.474113901833533</v>
       </c>
       <c r="C3">
-        <v>0.1338437435756532</v>
+        <v>0.3154083835121355</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6089153485827552</v>
+        <v>0.3677767610748646</v>
       </c>
       <c r="F3">
-        <v>1.808094619239839</v>
+        <v>1.192731520030989</v>
       </c>
       <c r="G3">
-        <v>0.2580350798519291</v>
+        <v>0.208048654360141</v>
       </c>
       <c r="H3">
-        <v>0.4310242898740029</v>
+        <v>0.1838430036527541</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02307780131247839</v>
+        <v>0.01367083574063521</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4684625176467634</v>
+        <v>0.758559169051999</v>
       </c>
       <c r="N3">
-        <v>1.011324605028932</v>
+        <v>0.7029512403707727</v>
       </c>
       <c r="O3">
-        <v>1.297555297880223</v>
+        <v>0.7766300717800902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4273327161748739</v>
+        <v>1.341942850720557</v>
       </c>
       <c r="C4">
-        <v>0.126510425852004</v>
+        <v>0.2933339746697499</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6062896402596039</v>
+        <v>0.3479430943372819</v>
       </c>
       <c r="F4">
-        <v>1.801158539905998</v>
+        <v>1.129375761252831</v>
       </c>
       <c r="G4">
-        <v>0.2572759575861809</v>
+        <v>0.1972192213241399</v>
       </c>
       <c r="H4">
-        <v>0.4329313498128684</v>
+        <v>0.182173695640941</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02315750984052656</v>
+        <v>0.01378219367424105</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4498863300257412</v>
+        <v>0.6906249003727325</v>
       </c>
       <c r="N4">
-        <v>1.014552577230695</v>
+        <v>0.7075787535814655</v>
       </c>
       <c r="O4">
-        <v>1.299779117795921</v>
+        <v>0.7499622604143212</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.41032172068509</v>
+        <v>1.288048346927809</v>
       </c>
       <c r="C5">
-        <v>0.1235119140817318</v>
+        <v>0.2843251572484178</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6052899652907726</v>
+        <v>0.3399808132549538</v>
       </c>
       <c r="F5">
-        <v>1.798602004845876</v>
+        <v>1.104071865950672</v>
       </c>
       <c r="G5">
-        <v>0.2570287149077686</v>
+        <v>0.1929569664785333</v>
       </c>
       <c r="H5">
-        <v>0.4337668449456729</v>
+        <v>0.1815936032221401</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02319187375777343</v>
+        <v>0.01383078933380588</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4423536309213958</v>
+        <v>0.6630150520333871</v>
       </c>
       <c r="N5">
-        <v>1.015969954476482</v>
+        <v>0.7096753951248758</v>
       </c>
       <c r="O5">
-        <v>1.300936995596842</v>
+        <v>0.7396221780608414</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4074953142979325</v>
+        <v>1.279096812561903</v>
       </c>
       <c r="C6">
-        <v>0.1230134086476795</v>
+        <v>0.2828284085896229</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.605128218952018</v>
+        <v>0.3386656914536914</v>
       </c>
       <c r="F6">
-        <v>1.798193798178715</v>
+        <v>1.099900198056162</v>
       </c>
       <c r="G6">
-        <v>0.2569914065924195</v>
+        <v>0.1922580248060299</v>
       </c>
       <c r="H6">
-        <v>0.4339091025634971</v>
+        <v>0.1815031929407951</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02319769365762347</v>
+        <v>0.01383905127182938</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4411050940033761</v>
+        <v>0.6584345796380759</v>
       </c>
       <c r="N6">
-        <v>1.016211471343979</v>
+        <v>0.7100360818742715</v>
       </c>
       <c r="O6">
-        <v>1.301144448850621</v>
+        <v>0.7379361246290586</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4271034175466184</v>
+        <v>1.341216163376004</v>
       </c>
       <c r="C7">
-        <v>0.1264700275687005</v>
+        <v>0.2932125342208565</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6062758734884568</v>
+        <v>0.3478352370800124</v>
       </c>
       <c r="F7">
-        <v>1.801122968549137</v>
+        <v>1.129032469117618</v>
       </c>
       <c r="G7">
-        <v>0.2572723719427614</v>
+        <v>0.1971611423170856</v>
       </c>
       <c r="H7">
-        <v>0.432942381328516</v>
+        <v>0.182165472927764</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02315796565833583</v>
+        <v>0.01378283610169717</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4497845900402808</v>
+        <v>0.6902522605970347</v>
       </c>
       <c r="N7">
-        <v>1.014571279460299</v>
+        <v>0.7076061846453854</v>
       </c>
       <c r="O7">
-        <v>1.299793714893269</v>
+        <v>0.7498207180784959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5133684956384457</v>
+        <v>1.615073035609498</v>
       </c>
       <c r="C8">
-        <v>0.1416338276000886</v>
+        <v>0.3389220726789972</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6119574486484112</v>
+        <v>0.3893759579227094</v>
       </c>
       <c r="F8">
-        <v>1.8164190621643</v>
+        <v>1.262196866482128</v>
       </c>
       <c r="G8">
-        <v>0.2590578957220018</v>
+        <v>0.220150575342771</v>
       </c>
       <c r="H8">
-        <v>0.4291887484785946</v>
+        <v>0.1859801399519796</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02299916593230122</v>
+        <v>0.01356315792784102</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4884111891386667</v>
+        <v>0.8313381193605522</v>
       </c>
       <c r="N8">
-        <v>1.008228100048271</v>
+        <v>0.6987535860989382</v>
       </c>
       <c r="O8">
-        <v>1.29604350866471</v>
+        <v>0.8069819558763669</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6815300338288921</v>
+        <v>2.152082752025706</v>
       </c>
       <c r="C9">
-        <v>0.1710346890110941</v>
+        <v>0.4282514312024546</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6253151451924026</v>
+        <v>0.47532061237915</v>
       </c>
       <c r="F9">
-        <v>1.854942296967963</v>
+        <v>1.542440923965088</v>
       </c>
       <c r="G9">
-        <v>0.2645324182651194</v>
+        <v>0.270849616272784</v>
       </c>
       <c r="H9">
-        <v>0.4236695991612009</v>
+        <v>0.1970011500481519</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0227468239512767</v>
+        <v>0.01323826502926195</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5653056504769296</v>
+        <v>1.11132181684728</v>
       </c>
       <c r="N9">
-        <v>0.9989947070341287</v>
+        <v>0.6885988549990216</v>
       </c>
       <c r="O9">
-        <v>1.296659896865407</v>
+        <v>0.938327079720807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8044229604793145</v>
+        <v>2.54760110393471</v>
       </c>
       <c r="C10">
-        <v>0.1924214734178236</v>
+        <v>0.493808657364184</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6364804907568882</v>
+        <v>0.5418264950624803</v>
       </c>
       <c r="F10">
-        <v>1.888459718711189</v>
+        <v>1.762579072881664</v>
       </c>
       <c r="G10">
-        <v>0.2697696096455076</v>
+        <v>0.3122827251948763</v>
       </c>
       <c r="H10">
-        <v>0.4207382725738569</v>
+        <v>0.2075931279827756</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02259718924253207</v>
+        <v>0.01306795295877272</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.622486502212837</v>
+        <v>1.319954563688896</v>
       </c>
       <c r="N10">
-        <v>0.9941574104763902</v>
+        <v>0.6860187354231044</v>
       </c>
       <c r="O10">
-        <v>1.301999782396308</v>
+        <v>1.048880426053017</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8601793739451864</v>
+        <v>2.727985141250656</v>
       </c>
       <c r="C11">
-        <v>0.2021024881209144</v>
+        <v>0.5236448422476485</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6418535734021162</v>
+        <v>0.5729633441718107</v>
       </c>
       <c r="F11">
-        <v>1.904843686326416</v>
+        <v>1.866438652024456</v>
       </c>
       <c r="G11">
-        <v>0.2724186438925642</v>
+        <v>0.332220607461025</v>
       </c>
       <c r="H11">
-        <v>0.4196489222855888</v>
+        <v>0.2130332485387356</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02253683019725727</v>
+        <v>0.01300621668972646</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6486461740458509</v>
+        <v>1.415722137326682</v>
       </c>
       <c r="N11">
-        <v>0.9923779608909911</v>
+        <v>0.6860204679564674</v>
       </c>
       <c r="O11">
-        <v>1.30549636457863</v>
+        <v>1.102775233824076</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8812705911192324</v>
+        <v>2.796379004017524</v>
       </c>
       <c r="C12">
-        <v>0.2057613379665497</v>
+        <v>0.5349474856265317</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6439304640231427</v>
+        <v>0.5848946357142708</v>
       </c>
       <c r="F12">
-        <v>1.911211509693047</v>
+        <v>1.906357697171202</v>
       </c>
       <c r="G12">
-        <v>0.2734602964747381</v>
+        <v>0.3399433506048695</v>
       </c>
       <c r="H12">
-        <v>0.4192715318820177</v>
+        <v>0.2151898296632879</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02251507834587407</v>
+        <v>0.01298518114923475</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.658573075222165</v>
+        <v>1.452129830488275</v>
       </c>
       <c r="N12">
-        <v>0.9917645529603618</v>
+        <v>0.6862005023366606</v>
       </c>
       <c r="O12">
-        <v>1.306974371503401</v>
+        <v>1.12375103613789</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8767292413427867</v>
+        <v>2.781644984785999</v>
       </c>
       <c r="C13">
-        <v>0.2049736606713282</v>
+        <v>0.5325130271352521</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6434812913684667</v>
+        <v>0.5823185463951788</v>
       </c>
       <c r="F13">
-        <v>1.909832808402555</v>
+        <v>1.897733269009251</v>
       </c>
       <c r="G13">
-        <v>0.2732342418356808</v>
+        <v>0.3382721722622222</v>
       </c>
       <c r="H13">
-        <v>0.4193512472702849</v>
+        <v>0.2147209597398927</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02251971392252905</v>
+        <v>0.01298960602812116</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6564342215345533</v>
+        <v>1.444282121752991</v>
       </c>
       <c r="N13">
-        <v>0.9918939754651461</v>
+        <v>0.6861535787180486</v>
       </c>
       <c r="O13">
-        <v>1.306649203493606</v>
+        <v>1.119207490241422</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8619150194993495</v>
+        <v>2.733610094294932</v>
       </c>
       <c r="C14">
-        <v>0.2024036484106944</v>
+        <v>0.5245746166320089</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6420235945212553</v>
+        <v>0.5739420430536697</v>
       </c>
       <c r="F14">
-        <v>1.905364292161167</v>
+        <v>1.869710667622329</v>
       </c>
       <c r="G14">
-        <v>0.2725035682214809</v>
+        <v>0.3328524054636119</v>
       </c>
       <c r="H14">
-        <v>0.4196171701314029</v>
+        <v>0.2132086947345613</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02253501853970441</v>
+        <v>0.0130044386626853</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6494624518957721</v>
+        <v>1.418714448177383</v>
       </c>
       <c r="N14">
-        <v>0.9923262849788728</v>
+        <v>0.6860316227742516</v>
       </c>
       <c r="O14">
-        <v>1.305614873713807</v>
+        <v>1.104489270293953</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8528379111937738</v>
+        <v>2.704199204710449</v>
       </c>
       <c r="C15">
-        <v>0.200828504512117</v>
+        <v>0.5197127475979926</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6411362102351319</v>
+        <v>0.5688299006667563</v>
       </c>
       <c r="F15">
-        <v>1.902648501906427</v>
+        <v>1.852624513720826</v>
       </c>
       <c r="G15">
-        <v>0.2720610314799075</v>
+        <v>0.3295556259678989</v>
       </c>
       <c r="H15">
-        <v>0.4197846301371584</v>
+        <v>0.2122951788059737</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02254453682154001</v>
+        <v>0.01301383159235492</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6451947371300548</v>
+        <v>1.403072669153133</v>
       </c>
       <c r="N15">
-        <v>0.992598953540778</v>
+        <v>0.6859806003707973</v>
       </c>
       <c r="O15">
-        <v>1.305001375438565</v>
+        <v>1.095549283446701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8007760616400219</v>
+        <v>2.535823535481711</v>
       </c>
       <c r="C16">
-        <v>0.1917878105572868</v>
+        <v>0.491859266089449</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6361352577080339</v>
+        <v>0.5398105241831317</v>
       </c>
       <c r="F16">
-        <v>1.887411871191389</v>
+        <v>1.755871029617651</v>
       </c>
       <c r="G16">
-        <v>0.2696018695391444</v>
+        <v>0.3110030087841835</v>
       </c>
       <c r="H16">
-        <v>0.4208143781369529</v>
+        <v>0.2072507121603024</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02260128866489808</v>
+        <v>0.01307231096779304</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6207798417061667</v>
+        <v>1.313714812624326</v>
       </c>
       <c r="N16">
-        <v>0.9942821644089008</v>
+        <v>0.6860431446798856</v>
       </c>
       <c r="O16">
-        <v>1.301792789031822</v>
+        <v>1.045434883797071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7687989806938731</v>
+        <v>2.432662323802958</v>
       </c>
       <c r="C17">
-        <v>0.1862291832091785</v>
+        <v>0.4747772018179717</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6331425821052221</v>
+        <v>0.5222434865210843</v>
       </c>
       <c r="F17">
-        <v>1.878355913295891</v>
+        <v>1.697506000007564</v>
       </c>
       <c r="G17">
-        <v>0.2681616688411594</v>
+        <v>0.2999117312816111</v>
       </c>
       <c r="H17">
-        <v>0.4215086342704666</v>
+        <v>0.2043202575232783</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0226380761152889</v>
+        <v>0.01311227248628377</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6058396298163871</v>
+        <v>1.259129848676821</v>
       </c>
       <c r="N17">
-        <v>0.9954225188898533</v>
+        <v>0.6863897276721929</v>
       </c>
       <c r="O17">
-        <v>1.300098129675433</v>
+        <v>1.015647974384677</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7503927331953264</v>
+        <v>2.373368797157411</v>
       </c>
       <c r="C18">
-        <v>0.1830275100442407</v>
+        <v>0.4649532036673634</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6314489410994</v>
+        <v>0.5122216352949565</v>
       </c>
       <c r="F18">
-        <v>1.873254153137481</v>
+        <v>1.664282367899673</v>
       </c>
       <c r="G18">
-        <v>0.2673583872114165</v>
+        <v>0.2936338742703128</v>
       </c>
       <c r="H18">
-        <v>0.4219309291453897</v>
+        <v>0.2026928081259314</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02265996127120573</v>
+        <v>0.0131367337690147</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5972603553480553</v>
+        <v>1.227813696885079</v>
       </c>
       <c r="N18">
-        <v>0.9961180595812209</v>
+        <v>0.6866990524376746</v>
       </c>
       <c r="O18">
-        <v>1.299223853523927</v>
+        <v>0.9988513991399088</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7441583478884581</v>
+        <v>2.353299667660337</v>
       </c>
       <c r="C19">
-        <v>0.181942713559323</v>
+        <v>0.4616270972780114</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6308802564867406</v>
+        <v>0.5088421408228996</v>
       </c>
       <c r="F19">
-        <v>1.871545156592333</v>
+        <v>1.653091296998596</v>
       </c>
       <c r="G19">
-        <v>0.2670907124206678</v>
+        <v>0.2915252717661758</v>
       </c>
       <c r="H19">
-        <v>0.4220778567253944</v>
+        <v>0.202151546495358</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02266749601862372</v>
+        <v>0.01314526718055475</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5943579685311562</v>
+        <v>1.217223715698381</v>
       </c>
       <c r="N19">
-        <v>0.9963603693766743</v>
+        <v>0.6868223690217548</v>
       </c>
       <c r="O19">
-        <v>1.298945077369723</v>
+        <v>0.9932206534631121</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7722044405117003</v>
+        <v>2.443639515946245</v>
       </c>
       <c r="C20">
-        <v>0.1868213758666855</v>
+        <v>0.4765954811487347</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6334582944307243</v>
+        <v>0.5241049214917552</v>
       </c>
       <c r="F20">
-        <v>1.879308861881697</v>
+        <v>1.703682821006453</v>
       </c>
       <c r="G20">
-        <v>0.2683123832658367</v>
+        <v>0.3010817940206749</v>
       </c>
       <c r="H20">
-        <v>0.421432351343995</v>
+        <v>0.2046261493476322</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02263408492006391</v>
+        <v>0.01310786514458329</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6074286014058714</v>
+        <v>1.26493213227738</v>
       </c>
       <c r="N20">
-        <v>0.9952970245860513</v>
+        <v>0.6863413780245651</v>
       </c>
       <c r="O20">
-        <v>1.300268130032151</v>
+        <v>1.01878371699479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8662669366005389</v>
+        <v>2.74771659464318</v>
       </c>
       <c r="C21">
-        <v>0.203158719056006</v>
+        <v>0.526906183075937</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6424506099015375</v>
+        <v>0.5763985008856523</v>
       </c>
       <c r="F21">
-        <v>1.906672363566983</v>
+        <v>1.877925121700557</v>
       </c>
       <c r="G21">
-        <v>0.2727171378807185</v>
+        <v>0.3344395023531632</v>
       </c>
       <c r="H21">
-        <v>0.4195381087718317</v>
+        <v>0.2136502047894737</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02253049325013023</v>
+        <v>0.01300001772510484</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6515096687195978</v>
+        <v>1.42622026482988</v>
       </c>
       <c r="N21">
-        <v>0.9921976660263994</v>
+        <v>0.6860624900475614</v>
       </c>
       <c r="O21">
-        <v>1.305914500488655</v>
+        <v>1.108796573902964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9276103508232154</v>
+        <v>2.946962310186791</v>
       </c>
       <c r="C22">
-        <v>0.2137943842357117</v>
+        <v>0.559813606036613</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6485736834414482</v>
+        <v>0.611401024958333</v>
       </c>
       <c r="F22">
-        <v>1.925509458065221</v>
+        <v>1.995268229888495</v>
       </c>
       <c r="G22">
-        <v>0.2758205122283783</v>
+        <v>0.3572555552602239</v>
       </c>
       <c r="H22">
-        <v>0.4185048432944569</v>
+        <v>0.2201142361946324</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02246922795410811</v>
+        <v>0.0129432280415589</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6804402289569538</v>
+        <v>1.532472447756746</v>
       </c>
       <c r="N22">
-        <v>0.9905242429578749</v>
+        <v>0.6869310736011158</v>
       </c>
       <c r="O22">
-        <v>1.310502132836461</v>
+        <v>1.170955279217992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8948826830007874</v>
+        <v>2.840567051296148</v>
       </c>
       <c r="C23">
-        <v>0.2081218293660925</v>
+        <v>0.5422470432804118</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6452831821061409</v>
+        <v>0.5926392371410643</v>
       </c>
       <c r="F23">
-        <v>1.915368467787602</v>
+        <v>1.932303595219366</v>
       </c>
       <c r="G23">
-        <v>0.2741435708499012</v>
+        <v>0.3449797603213369</v>
       </c>
       <c r="H23">
-        <v>0.4190375776201591</v>
+        <v>0.216609963601158</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02250133863481629</v>
+        <v>0.01297225728360729</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6649885199347807</v>
+        <v>1.475680020770582</v>
       </c>
       <c r="N23">
-        <v>0.9913851927631896</v>
+        <v>0.68636774176926</v>
       </c>
       <c r="O23">
-        <v>1.307971373241713</v>
+        <v>1.137458275438433</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7706649011794298</v>
+        <v>2.438676681445031</v>
       </c>
       <c r="C24">
-        <v>0.1865536640641494</v>
+        <v>0.4757734474902122</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6333154771302176</v>
+        <v>0.5232631258138625</v>
       </c>
       <c r="F24">
-        <v>1.878877707915592</v>
+        <v>1.700889252731898</v>
       </c>
       <c r="G24">
-        <v>0.2682441683218002</v>
+        <v>0.3005525025297118</v>
       </c>
       <c r="H24">
-        <v>0.4214667667208687</v>
+        <v>0.2044876776843552</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02263588704779806</v>
+        <v>0.01310985307841506</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6067101960041441</v>
+        <v>1.26230871735163</v>
       </c>
       <c r="N24">
-        <v>0.99535363615351</v>
+        <v>0.6863628948330529</v>
       </c>
       <c r="O24">
-        <v>1.30019096139003</v>
+        <v>1.017365028782621</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6361498533019301</v>
+        <v>2.006711809809275</v>
       </c>
       <c r="C25">
-        <v>0.1631178710582333</v>
+        <v>0.4041071524507061</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6214642384611651</v>
+        <v>0.4515280636980421</v>
       </c>
       <c r="F25">
-        <v>1.843606171466178</v>
+        <v>1.464324451087535</v>
       </c>
       <c r="G25">
-        <v>0.2628389145119598</v>
+        <v>0.2564571981571149</v>
       </c>
       <c r="H25">
-        <v>0.4249654211711373</v>
+        <v>0.1936071726097666</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0228087914490871</v>
+        <v>0.01331443697363888</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5443821503341155</v>
+        <v>1.035134095349981</v>
       </c>
       <c r="N25">
-        <v>1.001150222621824</v>
+        <v>0.6905260920751388</v>
       </c>
       <c r="O25">
-        <v>1.29563694713886</v>
+        <v>0.9005030813813022</v>
       </c>
     </row>
   </sheetData>
